--- a/Data/chart-year.xlsx
+++ b/Data/chart-year.xlsx
@@ -69,202 +69,202 @@
               <c:numCache>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>31224.0</c:v>
+                  <c:v>1163439.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31880.0</c:v>
+                  <c:v>1193583.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1700.0</c:v>
+                  <c:v>1225407.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33367.0</c:v>
+                  <c:v>1258756.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34170.0</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35030.0</c:v>
+                  <c:v>1329709.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35983.0</c:v>
+                  <c:v>1367319.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37087.0</c:v>
+                  <c:v>1406463.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38414.0</c:v>
+                  <c:v>1447293.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40049.0</c:v>
+                  <c:v>1490004.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42064.0</c:v>
+                  <c:v>1534784.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44503.0</c:v>
+                  <c:v>1581771.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47364.0</c:v>
+                  <c:v>1631007.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50586.0</c:v>
+                  <c:v>1682428.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54079.0</c:v>
+                  <c:v>1735904.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57779.0</c:v>
+                  <c:v>1791396.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61736.0</c:v>
+                  <c:v>1848868.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66000.0</c:v>
+                  <c:v>1908522.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70527.0</c:v>
+                  <c:v>1970834.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75255.0</c:v>
+                  <c:v>2036430.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80176.0</c:v>
+                  <c:v>2105757.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>85095.0</c:v>
+                  <c:v>2179026.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>90107.0</c:v>
+                  <c:v>2256126.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>95836.0</c:v>
+                  <c:v>2336780.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>103124.0</c:v>
+                  <c:v>2420547.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>112483.0</c:v>
+                  <c:v>2507105.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>124393.0</c:v>
+                  <c:v>2596239.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>138458.0</c:v>
+                  <c:v>2688024.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>153262.0</c:v>
+                  <c:v>2782747.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>166840.0</c:v>
+                  <c:v>2880840.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>177872.0</c:v>
+                  <c:v>2982522.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>185562.0</c:v>
+                  <c:v>3087799.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>190545.0</c:v>
+                  <c:v>3196270.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>194666.0</c:v>
+                  <c:v>3307237.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>200569.0</c:v>
+                  <c:v>3419780.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>210051.0</c:v>
+                  <c:v>3533150.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>223861.0</c:v>
+                  <c:v>3647358.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>241103.0</c:v>
+                  <c:v>3762370.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>259933.0</c:v>
+                  <c:v>3877385.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>277678.0</c:v>
+                  <c:v>3991441.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>292423.0</c:v>
+                  <c:v>4104005.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>303553.0</c:v>
+                  <c:v>4214540.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>311707.0</c:v>
+                  <c:v>4323632.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>317743.0</c:v>
+                  <c:v>4433276.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>323040.0</c:v>
+                  <c:v>4546219.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>328615.0</c:v>
+                  <c:v>4664427.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>334667.0</c:v>
+                  <c:v>4789096.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>340888.0</c:v>
+                  <c:v>4919750.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>347200.0</c:v>
+                  <c:v>5054682.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>353403.0</c:v>
+                  <c:v>5191303.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>359358.0</c:v>
+                  <c:v>5327976.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>365114.0</c:v>
+                  <c:v>5464224.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>370787.0</c:v>
+                  <c:v>5601416.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>376370.0</c:v>
+                  <c:v>5742006.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>381848.0</c:v>
+                  <c:v>5889379.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>387215.0</c:v>
+                  <c:v>6046071.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>392470.0</c:v>
+                  <c:v>6212984.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>397644.0</c:v>
+                  <c:v>6389755.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>402802.0</c:v>
+                  <c:v>6576098.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>408029.0</c:v>
+                  <c:v>6771264.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>413385.0</c:v>
+                  <c:v>6974691.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>418895.0</c:v>
+                  <c:v>7186451.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>424545.0</c:v>
+                  <c:v>7406836.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>430310.0</c:v>
+                  <c:v>7635705.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>436146.0</c:v>
+                  <c:v>7872864.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>442019.0</c:v>
+                  <c:v>8118120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,202 +485,202 @@
               <c:numCache>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>31224.0</c:v>
+                  <c:v>1163439.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31880.0</c:v>
+                  <c:v>1193583.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1700.0</c:v>
+                  <c:v>1225407.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33367.0</c:v>
+                  <c:v>1258756.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34170.0</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35030.0</c:v>
+                  <c:v>1329709.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35983.0</c:v>
+                  <c:v>1367319.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37087.0</c:v>
+                  <c:v>1406463.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38414.0</c:v>
+                  <c:v>1447293.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40049.0</c:v>
+                  <c:v>1490004.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42064.0</c:v>
+                  <c:v>1534784.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44503.0</c:v>
+                  <c:v>1581771.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47364.0</c:v>
+                  <c:v>1631007.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50586.0</c:v>
+                  <c:v>1682428.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54079.0</c:v>
+                  <c:v>1735904.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57779.0</c:v>
+                  <c:v>1791396.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61736.0</c:v>
+                  <c:v>1848868.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66000.0</c:v>
+                  <c:v>1908522.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70527.0</c:v>
+                  <c:v>1970834.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75255.0</c:v>
+                  <c:v>2036430.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80176.0</c:v>
+                  <c:v>2105757.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>85095.0</c:v>
+                  <c:v>2179026.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>90107.0</c:v>
+                  <c:v>2256126.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>95836.0</c:v>
+                  <c:v>2336780.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>103124.0</c:v>
+                  <c:v>2420547.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>112483.0</c:v>
+                  <c:v>2507105.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>124393.0</c:v>
+                  <c:v>2596239.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>138458.0</c:v>
+                  <c:v>2688024.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>153262.0</c:v>
+                  <c:v>2782747.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>166840.0</c:v>
+                  <c:v>2880840.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>177872.0</c:v>
+                  <c:v>2982522.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>185562.0</c:v>
+                  <c:v>3087799.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>190545.0</c:v>
+                  <c:v>3196270.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>194666.0</c:v>
+                  <c:v>3307237.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>200569.0</c:v>
+                  <c:v>3419780.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>210051.0</c:v>
+                  <c:v>3533150.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>223861.0</c:v>
+                  <c:v>3647358.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>241103.0</c:v>
+                  <c:v>3762370.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>259933.0</c:v>
+                  <c:v>3877385.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>277678.0</c:v>
+                  <c:v>3991441.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>292423.0</c:v>
+                  <c:v>4104005.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>303553.0</c:v>
+                  <c:v>4214540.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>311707.0</c:v>
+                  <c:v>4323632.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>317743.0</c:v>
+                  <c:v>4433276.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>323040.0</c:v>
+                  <c:v>4546219.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>328615.0</c:v>
+                  <c:v>4664427.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>334667.0</c:v>
+                  <c:v>4789096.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>340888.0</c:v>
+                  <c:v>4919750.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>347200.0</c:v>
+                  <c:v>5054682.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>353403.0</c:v>
+                  <c:v>5191303.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>359358.0</c:v>
+                  <c:v>5327976.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>365114.0</c:v>
+                  <c:v>5464224.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>370787.0</c:v>
+                  <c:v>5601416.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>376370.0</c:v>
+                  <c:v>5742006.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>381848.0</c:v>
+                  <c:v>5889379.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>387215.0</c:v>
+                  <c:v>6046071.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>392470.0</c:v>
+                  <c:v>6212984.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>397644.0</c:v>
+                  <c:v>6389755.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>402802.0</c:v>
+                  <c:v>6576098.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>408029.0</c:v>
+                  <c:v>6771264.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>413385.0</c:v>
+                  <c:v>6974691.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>418895.0</c:v>
+                  <c:v>7186451.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>424545.0</c:v>
+                  <c:v>7406836.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>430310.0</c:v>
+                  <c:v>7635705.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>436146.0</c:v>
+                  <c:v>7872864.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>442019.0</c:v>
+                  <c:v>8118120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,202 +778,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>31224.0</v>
+        <v>1163439.0</v>
       </c>
       <c r="B1" t="n">
-        <v>31880.0</v>
+        <v>1193583.0</v>
       </c>
       <c r="C1" t="n">
-        <v>1700.0</v>
+        <v>1225407.0</v>
       </c>
       <c r="D1" t="n">
-        <v>33367.0</v>
+        <v>1258756.0</v>
       </c>
       <c r="E1" t="n">
-        <v>34170.0</v>
+        <v>1200.0</v>
       </c>
       <c r="F1" t="n">
-        <v>35030.0</v>
+        <v>1329709.0</v>
       </c>
       <c r="G1" t="n">
-        <v>35983.0</v>
+        <v>1367319.0</v>
       </c>
       <c r="H1" t="n">
-        <v>37087.0</v>
+        <v>1406463.0</v>
       </c>
       <c r="I1" t="n">
-        <v>38414.0</v>
+        <v>1447293.0</v>
       </c>
       <c r="J1" t="n">
-        <v>40049.0</v>
+        <v>1490004.0</v>
       </c>
       <c r="K1" t="n">
-        <v>42064.0</v>
+        <v>1534784.0</v>
       </c>
       <c r="L1" t="n">
-        <v>44503.0</v>
+        <v>1581771.0</v>
       </c>
       <c r="M1" t="n">
-        <v>47364.0</v>
+        <v>1631007.0</v>
       </c>
       <c r="N1" t="n">
-        <v>50586.0</v>
+        <v>1682428.0</v>
       </c>
       <c r="O1" t="n">
-        <v>54079.0</v>
+        <v>1735904.0</v>
       </c>
       <c r="P1" t="n">
-        <v>57779.0</v>
+        <v>1791396.0</v>
       </c>
       <c r="Q1" t="n">
-        <v>61736.0</v>
+        <v>1848868.0</v>
       </c>
       <c r="R1" t="n">
-        <v>66000.0</v>
+        <v>1908522.0</v>
       </c>
       <c r="S1" t="n">
-        <v>70527.0</v>
+        <v>1970834.0</v>
       </c>
       <c r="T1" t="n">
-        <v>75255.0</v>
+        <v>2036430.0</v>
       </c>
       <c r="U1" t="n">
-        <v>80176.0</v>
+        <v>2105757.0</v>
       </c>
       <c r="V1" t="n">
-        <v>85095.0</v>
+        <v>2179026.0</v>
       </c>
       <c r="W1" t="n">
-        <v>90107.0</v>
+        <v>2256126.0</v>
       </c>
       <c r="X1" t="n">
-        <v>95836.0</v>
+        <v>2336780.0</v>
       </c>
       <c r="Y1" t="n">
-        <v>103124.0</v>
+        <v>2420547.0</v>
       </c>
       <c r="Z1" t="n">
-        <v>112483.0</v>
+        <v>2507105.0</v>
       </c>
       <c r="AA1" t="n">
-        <v>124393.0</v>
+        <v>2596239.0</v>
       </c>
       <c r="AB1" t="n">
-        <v>138458.0</v>
+        <v>2688024.0</v>
       </c>
       <c r="AC1" t="n">
-        <v>153262.0</v>
+        <v>2782747.0</v>
       </c>
       <c r="AD1" t="n">
-        <v>166840.0</v>
+        <v>2880840.0</v>
       </c>
       <c r="AE1" t="n">
-        <v>177872.0</v>
+        <v>2982522.0</v>
       </c>
       <c r="AF1" t="n">
-        <v>185562.0</v>
+        <v>3087799.0</v>
       </c>
       <c r="AG1" t="n">
-        <v>190545.0</v>
+        <v>3196270.0</v>
       </c>
       <c r="AH1" t="n">
-        <v>194666.0</v>
+        <v>3307237.0</v>
       </c>
       <c r="AI1" t="n">
-        <v>200569.0</v>
+        <v>3419780.0</v>
       </c>
       <c r="AJ1" t="n">
-        <v>210051.0</v>
+        <v>3533150.0</v>
       </c>
       <c r="AK1" t="n">
-        <v>223861.0</v>
+        <v>3647358.0</v>
       </c>
       <c r="AL1" t="n">
-        <v>241103.0</v>
+        <v>3762370.0</v>
       </c>
       <c r="AM1" t="n">
-        <v>259933.0</v>
+        <v>3877385.0</v>
       </c>
       <c r="AN1" t="n">
-        <v>277678.0</v>
+        <v>3991441.0</v>
       </c>
       <c r="AO1" t="n">
-        <v>292423.0</v>
+        <v>4104005.0</v>
       </c>
       <c r="AP1" t="n">
-        <v>303553.0</v>
+        <v>4214540.0</v>
       </c>
       <c r="AQ1" t="n">
-        <v>311707.0</v>
+        <v>4323632.0</v>
       </c>
       <c r="AR1" t="n">
-        <v>317743.0</v>
+        <v>4433276.0</v>
       </c>
       <c r="AS1" t="n">
-        <v>323040.0</v>
+        <v>4546219.0</v>
       </c>
       <c r="AT1" t="n">
-        <v>328615.0</v>
+        <v>4664427.0</v>
       </c>
       <c r="AU1" t="n">
-        <v>334667.0</v>
+        <v>4789096.0</v>
       </c>
       <c r="AV1" t="n">
-        <v>340888.0</v>
+        <v>4919750.0</v>
       </c>
       <c r="AW1" t="n">
-        <v>347200.0</v>
+        <v>5054682.0</v>
       </c>
       <c r="AX1" t="n">
-        <v>353403.0</v>
+        <v>5191303.0</v>
       </c>
       <c r="AY1" t="n">
-        <v>359358.0</v>
+        <v>5327976.0</v>
       </c>
       <c r="AZ1" t="n">
-        <v>365114.0</v>
+        <v>5464224.0</v>
       </c>
       <c r="BA1" t="n">
-        <v>370787.0</v>
+        <v>5601416.0</v>
       </c>
       <c r="BB1" t="n">
-        <v>376370.0</v>
+        <v>5742006.0</v>
       </c>
       <c r="BC1" t="n">
-        <v>381848.0</v>
+        <v>5889379.0</v>
       </c>
       <c r="BD1" t="n">
-        <v>387215.0</v>
+        <v>6046071.0</v>
       </c>
       <c r="BE1" t="n">
-        <v>392470.0</v>
+        <v>6212984.0</v>
       </c>
       <c r="BF1" t="n">
-        <v>397644.0</v>
+        <v>6389755.0</v>
       </c>
       <c r="BG1" t="n">
-        <v>402802.0</v>
+        <v>6576098.0</v>
       </c>
       <c r="BH1" t="n">
-        <v>408029.0</v>
+        <v>6771264.0</v>
       </c>
       <c r="BI1" t="n">
-        <v>413385.0</v>
+        <v>6974691.0</v>
       </c>
       <c r="BJ1" t="n">
-        <v>418895.0</v>
+        <v>7186451.0</v>
       </c>
       <c r="BK1" t="n">
-        <v>424545.0</v>
+        <v>7406836.0</v>
       </c>
       <c r="BL1" t="n">
-        <v>430310.0</v>
+        <v>7635705.0</v>
       </c>
       <c r="BM1" t="n">
-        <v>436146.0</v>
+        <v>7872864.0</v>
       </c>
       <c r="BN1" t="n">
-        <v>442019.0</v>
+        <v>8118120.0</v>
       </c>
     </row>
     <row r="2">

--- a/Data/chart-year.xlsx
+++ b/Data/chart-year.xlsx
@@ -69,202 +69,202 @@
               <c:numCache>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>1163439.0</c:v>
+                  <c:v>1.0360614E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1193583.0</c:v>
+                  <c:v>1.0594648E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1225407.0</c:v>
+                  <c:v>1.0845524E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1258756.0</c:v>
+                  <c:v>1.1112741E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1329709.0</c:v>
+                  <c:v>1.1693306E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1367319.0</c:v>
+                  <c:v>1.2004756E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1406463.0</c:v>
+                  <c:v>1.2328749E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1447293.0</c:v>
+                  <c:v>1.2663919E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1490004.0</c:v>
+                  <c:v>1.3008803E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1534784.0</c:v>
+                  <c:v>1.3362E7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1581771.0</c:v>
+                  <c:v>1.3722335E7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1631007.0</c:v>
+                  <c:v>1.4089004E7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1682428.0</c:v>
+                  <c:v>1.4461633E7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1735904.0</c:v>
+                  <c:v>1.4840107E7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1791396.0</c:v>
+                  <c:v>1.522405E7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1848868.0</c:v>
+                  <c:v>1.5614402E7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1908522.0</c:v>
+                  <c:v>1.6010319E7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1970834.0</c:v>
+                  <c:v>1.6407692E7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2036430.0</c:v>
+                  <c:v>1.6801128E7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2105757.0</c:v>
+                  <c:v>1.7187479E7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2179026.0</c:v>
+                  <c:v>1.7565617E7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2256126.0</c:v>
+                  <c:v>1.7938875E7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2336780.0</c:v>
+                  <c:v>1.8314232E7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2420547.0</c:v>
+                  <c:v>1.8701277E7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2507105.0</c:v>
+                  <c:v>1.9107607E7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2596239.0</c:v>
+                  <c:v>1.9535192E7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2688024.0</c:v>
+                  <c:v>1.9984179E7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2782747.0</c:v>
+                  <c:v>2.0458035E7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2880840.0</c:v>
+                  <c:v>2.0960235E7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2982522.0</c:v>
+                  <c:v>2.1492978E7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3087799.0</c:v>
+                  <c:v>2.2055828E7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3196270.0</c:v>
+                  <c:v>2.264739E7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3307237.0</c:v>
+                  <c:v>2.3267105E7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3419780.0</c:v>
+                  <c:v>2.3913914E7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3533150.0</c:v>
+                  <c:v>2.4585263E7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3647358.0</c:v>
+                  <c:v>2.5282714E7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3762370.0</c:v>
+                  <c:v>2.6001388E7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3877385.0</c:v>
+                  <c:v>2.672443E7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3991441.0</c:v>
+                  <c:v>2.7429892E7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4104005.0</c:v>
+                  <c:v>2.810231E7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4214540.0</c:v>
+                  <c:v>2.8734915E7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4323632.0</c:v>
+                  <c:v>2.9332406E7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4433276.0</c:v>
+                  <c:v>2.9905239E7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4546219.0</c:v>
+                  <c:v>3.04697E7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4664427.0</c:v>
+                  <c:v>3.1038254E7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4789096.0</c:v>
+                  <c:v>3.1613597E7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4919750.0</c:v>
+                  <c:v>3.219365E7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5054682.0</c:v>
+                  <c:v>3.2780583E7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5191303.0</c:v>
+                  <c:v>3.3375877E7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5327976.0</c:v>
+                  <c:v>3.3980766E7</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5464224.0</c:v>
+                  <c:v>3.4599662E7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5601416.0</c:v>
+                  <c:v>3.52343E7</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5742006.0</c:v>
+                  <c:v>3.5880034E7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5889379.0</c:v>
+                  <c:v>3.6529824E7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6046071.0</c:v>
+                  <c:v>3.7180097E7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6212984.0</c:v>
+                  <c:v>3.782586E7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6389755.0</c:v>
+                  <c:v>3.8472775E7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6576098.0</c:v>
+                  <c:v>3.9140493E7</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6771264.0</c:v>
+                  <c:v>3.9855576E7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6974691.0</c:v>
+                  <c:v>4.0635503E7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7186451.0</c:v>
+                  <c:v>4.1488021E7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7406836.0</c:v>
+                  <c:v>4.2403053E7</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7635705.0</c:v>
+                  <c:v>4.3358108E7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7872864.0</c:v>
+                  <c:v>4.4321011E7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8118120.0</c:v>
+                  <c:v>4.5267664E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,202 +485,202 @@
               <c:numCache>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>1163439.0</c:v>
+                  <c:v>1.0360614E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1193583.0</c:v>
+                  <c:v>1.0594648E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1225407.0</c:v>
+                  <c:v>1.0845524E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1258756.0</c:v>
+                  <c:v>1.1112741E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1329709.0</c:v>
+                  <c:v>1.1693306E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1367319.0</c:v>
+                  <c:v>1.2004756E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1406463.0</c:v>
+                  <c:v>1.2328749E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1447293.0</c:v>
+                  <c:v>1.2663919E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1490004.0</c:v>
+                  <c:v>1.3008803E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1534784.0</c:v>
+                  <c:v>1.3362E7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1581771.0</c:v>
+                  <c:v>1.3722335E7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1631007.0</c:v>
+                  <c:v>1.4089004E7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1682428.0</c:v>
+                  <c:v>1.4461633E7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1735904.0</c:v>
+                  <c:v>1.4840107E7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1791396.0</c:v>
+                  <c:v>1.522405E7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1848868.0</c:v>
+                  <c:v>1.5614402E7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1908522.0</c:v>
+                  <c:v>1.6010319E7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1970834.0</c:v>
+                  <c:v>1.6407692E7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2036430.0</c:v>
+                  <c:v>1.6801128E7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2105757.0</c:v>
+                  <c:v>1.7187479E7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2179026.0</c:v>
+                  <c:v>1.7565617E7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2256126.0</c:v>
+                  <c:v>1.7938875E7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2336780.0</c:v>
+                  <c:v>1.8314232E7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2420547.0</c:v>
+                  <c:v>1.8701277E7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2507105.0</c:v>
+                  <c:v>1.9107607E7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2596239.0</c:v>
+                  <c:v>1.9535192E7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2688024.0</c:v>
+                  <c:v>1.9984179E7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2782747.0</c:v>
+                  <c:v>2.0458035E7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2880840.0</c:v>
+                  <c:v>2.0960235E7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2982522.0</c:v>
+                  <c:v>2.1492978E7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3087799.0</c:v>
+                  <c:v>2.2055828E7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3196270.0</c:v>
+                  <c:v>2.264739E7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3307237.0</c:v>
+                  <c:v>2.3267105E7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3419780.0</c:v>
+                  <c:v>2.3913914E7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3533150.0</c:v>
+                  <c:v>2.4585263E7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3647358.0</c:v>
+                  <c:v>2.5282714E7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3762370.0</c:v>
+                  <c:v>2.6001388E7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3877385.0</c:v>
+                  <c:v>2.672443E7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3991441.0</c:v>
+                  <c:v>2.7429892E7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4104005.0</c:v>
+                  <c:v>2.810231E7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4214540.0</c:v>
+                  <c:v>2.8734915E7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4323632.0</c:v>
+                  <c:v>2.9332406E7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4433276.0</c:v>
+                  <c:v>2.9905239E7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4546219.0</c:v>
+                  <c:v>3.04697E7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4664427.0</c:v>
+                  <c:v>3.1038254E7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4789096.0</c:v>
+                  <c:v>3.1613597E7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4919750.0</c:v>
+                  <c:v>3.219365E7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5054682.0</c:v>
+                  <c:v>3.2780583E7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5191303.0</c:v>
+                  <c:v>3.3375877E7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5327976.0</c:v>
+                  <c:v>3.3980766E7</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5464224.0</c:v>
+                  <c:v>3.4599662E7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5601416.0</c:v>
+                  <c:v>3.52343E7</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5742006.0</c:v>
+                  <c:v>3.5880034E7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5889379.0</c:v>
+                  <c:v>3.6529824E7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6046071.0</c:v>
+                  <c:v>3.7180097E7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6212984.0</c:v>
+                  <c:v>3.782586E7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6389755.0</c:v>
+                  <c:v>3.8472775E7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6576098.0</c:v>
+                  <c:v>3.9140493E7</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6771264.0</c:v>
+                  <c:v>3.9855576E7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6974691.0</c:v>
+                  <c:v>4.0635503E7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7186451.0</c:v>
+                  <c:v>4.1488021E7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7406836.0</c:v>
+                  <c:v>4.2403053E7</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7635705.0</c:v>
+                  <c:v>4.3358108E7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7872864.0</c:v>
+                  <c:v>4.4321011E7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8118120.0</c:v>
+                  <c:v>4.5267664E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,202 +778,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1163439.0</v>
+        <v>1.0360614E7</v>
       </c>
       <c r="B1" t="n">
-        <v>1193583.0</v>
+        <v>1.0594648E7</v>
       </c>
       <c r="C1" t="n">
-        <v>1225407.0</v>
+        <v>1.0845524E7</v>
       </c>
       <c r="D1" t="n">
-        <v>1258756.0</v>
+        <v>1.1112741E7</v>
       </c>
       <c r="E1" t="n">
         <v>1200.0</v>
       </c>
       <c r="F1" t="n">
-        <v>1329709.0</v>
+        <v>1.1693306E7</v>
       </c>
       <c r="G1" t="n">
-        <v>1367319.0</v>
+        <v>1.2004756E7</v>
       </c>
       <c r="H1" t="n">
-        <v>1406463.0</v>
+        <v>1.2328749E7</v>
       </c>
       <c r="I1" t="n">
-        <v>1447293.0</v>
+        <v>1.2663919E7</v>
       </c>
       <c r="J1" t="n">
-        <v>1490004.0</v>
+        <v>1.3008803E7</v>
       </c>
       <c r="K1" t="n">
-        <v>1534784.0</v>
+        <v>1.3362E7</v>
       </c>
       <c r="L1" t="n">
-        <v>1581771.0</v>
+        <v>1.3722335E7</v>
       </c>
       <c r="M1" t="n">
-        <v>1631007.0</v>
+        <v>1.4089004E7</v>
       </c>
       <c r="N1" t="n">
-        <v>1682428.0</v>
+        <v>1.4461633E7</v>
       </c>
       <c r="O1" t="n">
-        <v>1735904.0</v>
+        <v>1.4840107E7</v>
       </c>
       <c r="P1" t="n">
-        <v>1791396.0</v>
+        <v>1.522405E7</v>
       </c>
       <c r="Q1" t="n">
-        <v>1848868.0</v>
+        <v>1.5614402E7</v>
       </c>
       <c r="R1" t="n">
-        <v>1908522.0</v>
+        <v>1.6010319E7</v>
       </c>
       <c r="S1" t="n">
-        <v>1970834.0</v>
+        <v>1.6407692E7</v>
       </c>
       <c r="T1" t="n">
-        <v>2036430.0</v>
+        <v>1.6801128E7</v>
       </c>
       <c r="U1" t="n">
-        <v>2105757.0</v>
+        <v>1.7187479E7</v>
       </c>
       <c r="V1" t="n">
-        <v>2179026.0</v>
+        <v>1.7565617E7</v>
       </c>
       <c r="W1" t="n">
-        <v>2256126.0</v>
+        <v>1.7938875E7</v>
       </c>
       <c r="X1" t="n">
-        <v>2336780.0</v>
+        <v>1.8314232E7</v>
       </c>
       <c r="Y1" t="n">
-        <v>2420547.0</v>
+        <v>1.8701277E7</v>
       </c>
       <c r="Z1" t="n">
-        <v>2507105.0</v>
+        <v>1.9107607E7</v>
       </c>
       <c r="AA1" t="n">
-        <v>2596239.0</v>
+        <v>1.9535192E7</v>
       </c>
       <c r="AB1" t="n">
-        <v>2688024.0</v>
+        <v>1.9984179E7</v>
       </c>
       <c r="AC1" t="n">
-        <v>2782747.0</v>
+        <v>2.0458035E7</v>
       </c>
       <c r="AD1" t="n">
-        <v>2880840.0</v>
+        <v>2.0960235E7</v>
       </c>
       <c r="AE1" t="n">
-        <v>2982522.0</v>
+        <v>2.1492978E7</v>
       </c>
       <c r="AF1" t="n">
-        <v>3087799.0</v>
+        <v>2.2055828E7</v>
       </c>
       <c r="AG1" t="n">
-        <v>3196270.0</v>
+        <v>2.264739E7</v>
       </c>
       <c r="AH1" t="n">
-        <v>3307237.0</v>
+        <v>2.3267105E7</v>
       </c>
       <c r="AI1" t="n">
-        <v>3419780.0</v>
+        <v>2.3913914E7</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3533150.0</v>
+        <v>2.4585263E7</v>
       </c>
       <c r="AK1" t="n">
-        <v>3647358.0</v>
+        <v>2.5282714E7</v>
       </c>
       <c r="AL1" t="n">
-        <v>3762370.0</v>
+        <v>2.6001388E7</v>
       </c>
       <c r="AM1" t="n">
-        <v>3877385.0</v>
+        <v>2.672443E7</v>
       </c>
       <c r="AN1" t="n">
-        <v>3991441.0</v>
+        <v>2.7429892E7</v>
       </c>
       <c r="AO1" t="n">
-        <v>4104005.0</v>
+        <v>2.810231E7</v>
       </c>
       <c r="AP1" t="n">
-        <v>4214540.0</v>
+        <v>2.8734915E7</v>
       </c>
       <c r="AQ1" t="n">
-        <v>4323632.0</v>
+        <v>2.9332406E7</v>
       </c>
       <c r="AR1" t="n">
-        <v>4433276.0</v>
+        <v>2.9905239E7</v>
       </c>
       <c r="AS1" t="n">
-        <v>4546219.0</v>
+        <v>3.04697E7</v>
       </c>
       <c r="AT1" t="n">
-        <v>4664427.0</v>
+        <v>3.1038254E7</v>
       </c>
       <c r="AU1" t="n">
-        <v>4789096.0</v>
+        <v>3.1613597E7</v>
       </c>
       <c r="AV1" t="n">
-        <v>4919750.0</v>
+        <v>3.219365E7</v>
       </c>
       <c r="AW1" t="n">
-        <v>5054682.0</v>
+        <v>3.2780583E7</v>
       </c>
       <c r="AX1" t="n">
-        <v>5191303.0</v>
+        <v>3.3375877E7</v>
       </c>
       <c r="AY1" t="n">
-        <v>5327976.0</v>
+        <v>3.3980766E7</v>
       </c>
       <c r="AZ1" t="n">
-        <v>5464224.0</v>
+        <v>3.4599662E7</v>
       </c>
       <c r="BA1" t="n">
-        <v>5601416.0</v>
+        <v>3.52343E7</v>
       </c>
       <c r="BB1" t="n">
-        <v>5742006.0</v>
+        <v>3.5880034E7</v>
       </c>
       <c r="BC1" t="n">
-        <v>5889379.0</v>
+        <v>3.6529824E7</v>
       </c>
       <c r="BD1" t="n">
-        <v>6046071.0</v>
+        <v>3.7180097E7</v>
       </c>
       <c r="BE1" t="n">
-        <v>6212984.0</v>
+        <v>3.782586E7</v>
       </c>
       <c r="BF1" t="n">
-        <v>6389755.0</v>
+        <v>3.8472775E7</v>
       </c>
       <c r="BG1" t="n">
-        <v>6576098.0</v>
+        <v>3.9140493E7</v>
       </c>
       <c r="BH1" t="n">
-        <v>6771264.0</v>
+        <v>3.9855576E7</v>
       </c>
       <c r="BI1" t="n">
-        <v>6974691.0</v>
+        <v>4.0635503E7</v>
       </c>
       <c r="BJ1" t="n">
-        <v>7186451.0</v>
+        <v>4.1488021E7</v>
       </c>
       <c r="BK1" t="n">
-        <v>7406836.0</v>
+        <v>4.2403053E7</v>
       </c>
       <c r="BL1" t="n">
-        <v>7635705.0</v>
+        <v>4.3358108E7</v>
       </c>
       <c r="BM1" t="n">
-        <v>7872864.0</v>
+        <v>4.4321011E7</v>
       </c>
       <c r="BN1" t="n">
-        <v>8118120.0</v>
+        <v>4.5267664E7</v>
       </c>
     </row>
     <row r="2">

--- a/Data/chart-year.xlsx
+++ b/Data/chart-year.xlsx
@@ -69,202 +69,202 @@
               <c:numCache>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>1.0360614E7</c:v>
+                  <c:v>1.0536623E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0594648E7</c:v>
+                  <c:v>1.0788745E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0845524E7</c:v>
+                  <c:v>1.1058954E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1112741E7</c:v>
+                  <c:v>1.1345661E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1693306E7</c:v>
+                  <c:v>1.196291E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2004756E7</c:v>
+                  <c:v>1.229099E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2328749E7</c:v>
+                  <c:v>1.2630642E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2663919E7</c:v>
+                  <c:v>1.2980972E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3008803E7</c:v>
+                  <c:v>1.334117E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3362E7</c:v>
+                  <c:v>1.3710397E7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3722335E7</c:v>
+                  <c:v>1.4087666E7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4089004E7</c:v>
+                  <c:v>1.4471737E7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4461633E7</c:v>
+                  <c:v>1.4861076E7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4840107E7</c:v>
+                  <c:v>1.5253975E7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.522405E7</c:v>
+                  <c:v>1.5648932E7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5614402E7</c:v>
+                  <c:v>1.6046512E7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6010319E7</c:v>
+                  <c:v>1.6446246E7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6407692E7</c:v>
+                  <c:v>1.6844583E7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6801128E7</c:v>
+                  <c:v>1.7237019E7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7187479E7</c:v>
+                  <c:v>1.762112E7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7565617E7</c:v>
+                  <c:v>1.799547E7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7938875E7</c:v>
+                  <c:v>1.8363279E7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8314232E7</c:v>
+                  <c:v>1.8732575E7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8701277E7</c:v>
+                  <c:v>1.9114301E7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9107607E7</c:v>
+                  <c:v>1.9516803E7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.9535192E7</c:v>
+                  <c:v>1.9943393E7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9984179E7</c:v>
+                  <c:v>2.0393489E7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0458035E7</c:v>
+                  <c:v>2.0866771E7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0960235E7</c:v>
+                  <c:v>2.1361505E7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1492978E7</c:v>
+                  <c:v>2.1876574E7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2055828E7</c:v>
+                  <c:v>2.241009E7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.264739E7</c:v>
+                  <c:v>2.296304E7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3267105E7</c:v>
+                  <c:v>2.3540116E7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3913914E7</c:v>
+                  <c:v>2.4147632E7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4585263E7</c:v>
+                  <c:v>2.4788543E7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.5282714E7</c:v>
+                  <c:v>2.5465473E7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.6001388E7</c:v>
+                  <c:v>2.6172452E7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.672443E7</c:v>
+                  <c:v>2.6893248E7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.7429892E7</c:v>
+                  <c:v>2.7606045E7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.810231E7</c:v>
+                  <c:v>2.8294963E7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.8734915E7</c:v>
+                  <c:v>2.8954913E7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.9332406E7</c:v>
+                  <c:v>2.9589612E7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.9905239E7</c:v>
+                  <c:v>3.0203134E7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.04697E7</c:v>
+                  <c:v>3.0803147E7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.1038254E7</c:v>
+                  <c:v>3.1396273E7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1613597E7</c:v>
+                  <c:v>3.1982032E7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.219365E7</c:v>
+                  <c:v>3.2560916E7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.2780583E7</c:v>
+                  <c:v>3.3142042E7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.3375877E7</c:v>
+                  <c:v>3.3736999E7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.3980766E7</c:v>
+                  <c:v>3.4354139E7</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.4599662E7</c:v>
+                  <c:v>3.5000283E7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.52343E7</c:v>
+                  <c:v>3.567441E7</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.5880034E7</c:v>
+                  <c:v>3.6367592E7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.6529824E7</c:v>
+                  <c:v>3.7066244E7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.7180097E7</c:v>
+                  <c:v>3.7762018E7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.782586E7</c:v>
+                  <c:v>3.8448425E7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.8472775E7</c:v>
+                  <c:v>3.9132552E7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.9140493E7</c:v>
+                  <c:v>3.9835629E7</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.9855576E7</c:v>
+                  <c:v>4.0586867E7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.0635503E7</c:v>
+                  <c:v>4.1405491E7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.1488021E7</c:v>
+                  <c:v>4.2299613E7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.2403053E7</c:v>
+                  <c:v>4.3257849E7</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.3358108E7</c:v>
+                  <c:v>4.4255801E7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.4321011E7</c:v>
+                  <c:v>4.5258659E7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.5267664E7</c:v>
+                  <c:v>4.624042E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,202 +485,202 @@
               <c:numCache>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>1.0360614E7</c:v>
+                  <c:v>1.0536623E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0594648E7</c:v>
+                  <c:v>1.0788745E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0845524E7</c:v>
+                  <c:v>1.1058954E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1112741E7</c:v>
+                  <c:v>1.1345661E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1693306E7</c:v>
+                  <c:v>1.196291E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2004756E7</c:v>
+                  <c:v>1.229099E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2328749E7</c:v>
+                  <c:v>1.2630642E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2663919E7</c:v>
+                  <c:v>1.2980972E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3008803E7</c:v>
+                  <c:v>1.334117E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3362E7</c:v>
+                  <c:v>1.3710397E7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3722335E7</c:v>
+                  <c:v>1.4087666E7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4089004E7</c:v>
+                  <c:v>1.4471737E7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4461633E7</c:v>
+                  <c:v>1.4861076E7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4840107E7</c:v>
+                  <c:v>1.5253975E7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.522405E7</c:v>
+                  <c:v>1.5648932E7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5614402E7</c:v>
+                  <c:v>1.6046512E7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6010319E7</c:v>
+                  <c:v>1.6446246E7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6407692E7</c:v>
+                  <c:v>1.6844583E7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6801128E7</c:v>
+                  <c:v>1.7237019E7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7187479E7</c:v>
+                  <c:v>1.762112E7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7565617E7</c:v>
+                  <c:v>1.799547E7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7938875E7</c:v>
+                  <c:v>1.8363279E7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8314232E7</c:v>
+                  <c:v>1.8732575E7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8701277E7</c:v>
+                  <c:v>1.9114301E7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9107607E7</c:v>
+                  <c:v>1.9516803E7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.9535192E7</c:v>
+                  <c:v>1.9943393E7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9984179E7</c:v>
+                  <c:v>2.0393489E7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0458035E7</c:v>
+                  <c:v>2.0866771E7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0960235E7</c:v>
+                  <c:v>2.1361505E7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1492978E7</c:v>
+                  <c:v>2.1876574E7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2055828E7</c:v>
+                  <c:v>2.241009E7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.264739E7</c:v>
+                  <c:v>2.296304E7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3267105E7</c:v>
+                  <c:v>2.3540116E7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3913914E7</c:v>
+                  <c:v>2.4147632E7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4585263E7</c:v>
+                  <c:v>2.4788543E7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.5282714E7</c:v>
+                  <c:v>2.5465473E7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.6001388E7</c:v>
+                  <c:v>2.6172452E7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.672443E7</c:v>
+                  <c:v>2.6893248E7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.7429892E7</c:v>
+                  <c:v>2.7606045E7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.810231E7</c:v>
+                  <c:v>2.8294963E7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.8734915E7</c:v>
+                  <c:v>2.8954913E7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.9332406E7</c:v>
+                  <c:v>2.9589612E7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.9905239E7</c:v>
+                  <c:v>3.0203134E7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.04697E7</c:v>
+                  <c:v>3.0803147E7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.1038254E7</c:v>
+                  <c:v>3.1396273E7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1613597E7</c:v>
+                  <c:v>3.1982032E7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.219365E7</c:v>
+                  <c:v>3.2560916E7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.2780583E7</c:v>
+                  <c:v>3.3142042E7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.3375877E7</c:v>
+                  <c:v>3.3736999E7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.3980766E7</c:v>
+                  <c:v>3.4354139E7</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.4599662E7</c:v>
+                  <c:v>3.5000283E7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.52343E7</c:v>
+                  <c:v>3.567441E7</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.5880034E7</c:v>
+                  <c:v>3.6367592E7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.6529824E7</c:v>
+                  <c:v>3.7066244E7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.7180097E7</c:v>
+                  <c:v>3.7762018E7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.782586E7</c:v>
+                  <c:v>3.8448425E7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.8472775E7</c:v>
+                  <c:v>3.9132552E7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.9140493E7</c:v>
+                  <c:v>3.9835629E7</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.9855576E7</c:v>
+                  <c:v>4.0586867E7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.0635503E7</c:v>
+                  <c:v>4.1405491E7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.1488021E7</c:v>
+                  <c:v>4.2299613E7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.2403053E7</c:v>
+                  <c:v>4.3257849E7</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.3358108E7</c:v>
+                  <c:v>4.4255801E7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.4321011E7</c:v>
+                  <c:v>4.5258659E7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.5267664E7</c:v>
+                  <c:v>4.624042E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,202 +778,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0360614E7</v>
+        <v>1.0536623E7</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0594648E7</v>
+        <v>1.0788745E7</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0845524E7</v>
+        <v>1.1058954E7</v>
       </c>
       <c r="D1" t="n">
-        <v>1.1112741E7</v>
+        <v>1.1345661E7</v>
       </c>
       <c r="E1" t="n">
         <v>1200.0</v>
       </c>
       <c r="F1" t="n">
-        <v>1.1693306E7</v>
+        <v>1.196291E7</v>
       </c>
       <c r="G1" t="n">
-        <v>1.2004756E7</v>
+        <v>1.229099E7</v>
       </c>
       <c r="H1" t="n">
-        <v>1.2328749E7</v>
+        <v>1.2630642E7</v>
       </c>
       <c r="I1" t="n">
-        <v>1.2663919E7</v>
+        <v>1.2980972E7</v>
       </c>
       <c r="J1" t="n">
-        <v>1.3008803E7</v>
+        <v>1.334117E7</v>
       </c>
       <c r="K1" t="n">
-        <v>1.3362E7</v>
+        <v>1.3710397E7</v>
       </c>
       <c r="L1" t="n">
-        <v>1.3722335E7</v>
+        <v>1.4087666E7</v>
       </c>
       <c r="M1" t="n">
-        <v>1.4089004E7</v>
+        <v>1.4471737E7</v>
       </c>
       <c r="N1" t="n">
-        <v>1.4461633E7</v>
+        <v>1.4861076E7</v>
       </c>
       <c r="O1" t="n">
-        <v>1.4840107E7</v>
+        <v>1.5253975E7</v>
       </c>
       <c r="P1" t="n">
-        <v>1.522405E7</v>
+        <v>1.5648932E7</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.5614402E7</v>
+        <v>1.6046512E7</v>
       </c>
       <c r="R1" t="n">
-        <v>1.6010319E7</v>
+        <v>1.6446246E7</v>
       </c>
       <c r="S1" t="n">
-        <v>1.6407692E7</v>
+        <v>1.6844583E7</v>
       </c>
       <c r="T1" t="n">
-        <v>1.6801128E7</v>
+        <v>1.7237019E7</v>
       </c>
       <c r="U1" t="n">
-        <v>1.7187479E7</v>
+        <v>1.762112E7</v>
       </c>
       <c r="V1" t="n">
-        <v>1.7565617E7</v>
+        <v>1.799547E7</v>
       </c>
       <c r="W1" t="n">
-        <v>1.7938875E7</v>
+        <v>1.8363279E7</v>
       </c>
       <c r="X1" t="n">
-        <v>1.8314232E7</v>
+        <v>1.8732575E7</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.8701277E7</v>
+        <v>1.9114301E7</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.9107607E7</v>
+        <v>1.9516803E7</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.9535192E7</v>
+        <v>1.9943393E7</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.9984179E7</v>
+        <v>2.0393489E7</v>
       </c>
       <c r="AC1" t="n">
-        <v>2.0458035E7</v>
+        <v>2.0866771E7</v>
       </c>
       <c r="AD1" t="n">
-        <v>2.0960235E7</v>
+        <v>2.1361505E7</v>
       </c>
       <c r="AE1" t="n">
-        <v>2.1492978E7</v>
+        <v>2.1876574E7</v>
       </c>
       <c r="AF1" t="n">
-        <v>2.2055828E7</v>
+        <v>2.241009E7</v>
       </c>
       <c r="AG1" t="n">
-        <v>2.264739E7</v>
+        <v>2.296304E7</v>
       </c>
       <c r="AH1" t="n">
-        <v>2.3267105E7</v>
+        <v>2.3540116E7</v>
       </c>
       <c r="AI1" t="n">
-        <v>2.3913914E7</v>
+        <v>2.4147632E7</v>
       </c>
       <c r="AJ1" t="n">
-        <v>2.4585263E7</v>
+        <v>2.4788543E7</v>
       </c>
       <c r="AK1" t="n">
-        <v>2.5282714E7</v>
+        <v>2.5465473E7</v>
       </c>
       <c r="AL1" t="n">
-        <v>2.6001388E7</v>
+        <v>2.6172452E7</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.672443E7</v>
+        <v>2.6893248E7</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.7429892E7</v>
+        <v>2.7606045E7</v>
       </c>
       <c r="AO1" t="n">
-        <v>2.810231E7</v>
+        <v>2.8294963E7</v>
       </c>
       <c r="AP1" t="n">
-        <v>2.8734915E7</v>
+        <v>2.8954913E7</v>
       </c>
       <c r="AQ1" t="n">
-        <v>2.9332406E7</v>
+        <v>2.9589612E7</v>
       </c>
       <c r="AR1" t="n">
-        <v>2.9905239E7</v>
+        <v>3.0203134E7</v>
       </c>
       <c r="AS1" t="n">
-        <v>3.04697E7</v>
+        <v>3.0803147E7</v>
       </c>
       <c r="AT1" t="n">
-        <v>3.1038254E7</v>
+        <v>3.1396273E7</v>
       </c>
       <c r="AU1" t="n">
-        <v>3.1613597E7</v>
+        <v>3.1982032E7</v>
       </c>
       <c r="AV1" t="n">
-        <v>3.219365E7</v>
+        <v>3.2560916E7</v>
       </c>
       <c r="AW1" t="n">
-        <v>3.2780583E7</v>
+        <v>3.3142042E7</v>
       </c>
       <c r="AX1" t="n">
-        <v>3.3375877E7</v>
+        <v>3.3736999E7</v>
       </c>
       <c r="AY1" t="n">
-        <v>3.3980766E7</v>
+        <v>3.4354139E7</v>
       </c>
       <c r="AZ1" t="n">
-        <v>3.4599662E7</v>
+        <v>3.5000283E7</v>
       </c>
       <c r="BA1" t="n">
-        <v>3.52343E7</v>
+        <v>3.567441E7</v>
       </c>
       <c r="BB1" t="n">
-        <v>3.5880034E7</v>
+        <v>3.6367592E7</v>
       </c>
       <c r="BC1" t="n">
-        <v>3.6529824E7</v>
+        <v>3.7066244E7</v>
       </c>
       <c r="BD1" t="n">
-        <v>3.7180097E7</v>
+        <v>3.7762018E7</v>
       </c>
       <c r="BE1" t="n">
-        <v>3.782586E7</v>
+        <v>3.8448425E7</v>
       </c>
       <c r="BF1" t="n">
-        <v>3.8472775E7</v>
+        <v>3.9132552E7</v>
       </c>
       <c r="BG1" t="n">
-        <v>3.9140493E7</v>
+        <v>3.9835629E7</v>
       </c>
       <c r="BH1" t="n">
-        <v>3.9855576E7</v>
+        <v>4.0586867E7</v>
       </c>
       <c r="BI1" t="n">
-        <v>4.0635503E7</v>
+        <v>4.1405491E7</v>
       </c>
       <c r="BJ1" t="n">
-        <v>4.1488021E7</v>
+        <v>4.2299613E7</v>
       </c>
       <c r="BK1" t="n">
-        <v>4.2403053E7</v>
+        <v>4.3257849E7</v>
       </c>
       <c r="BL1" t="n">
-        <v>4.3358108E7</v>
+        <v>4.4255801E7</v>
       </c>
       <c r="BM1" t="n">
-        <v>4.4321011E7</v>
+        <v>4.5258659E7</v>
       </c>
       <c r="BN1" t="n">
-        <v>4.5267664E7</v>
+        <v>4.624042E7</v>
       </c>
     </row>
     <row r="2">
